--- a/Lab4/src/results/Genetic Results.xlsx
+++ b/Lab4/src/results/Genetic Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu365-my.sharepoint.com/personal/ncrothers_smu_edu/Documents/CS 3353/Repo/Lab4/src/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawx5\OneDrive - Southern Methodist University\CS 3353\Repo\Lab4\src\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{762DA231-657D-491C-B63D-7C98AE11ED10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{CCBAFBD8-AC1E-4A63-8144-36AAC7402B0C}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{762DA231-657D-491C-B63D-7C98AE11ED10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FA3FC2F7-F26B-43A5-B438-D543E17E06DD}"/>
   <bookViews>
-    <workbookView xWindow="-10596" yWindow="1356" windowWidth="17280" windowHeight="8964" xr2:uid="{E0AD89FA-F57F-43CA-B008-97322296D511}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0AD89FA-F57F-43CA-B008-97322296D511}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>roulette</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Partially Mapped</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -78,6 +102,1684 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Genetic Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Order</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.97527E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5996100000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0452700000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.82359E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7173300000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4040100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17186899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58030199999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.616734</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89973400000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74341900000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96383600000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.137799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.71251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7695499999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.58307</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1787099999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41ED-4019-95B9-F5B5DA970803}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Partially Mapped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.9011500000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2621400000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9159200000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4100199999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2629700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26780399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13326499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37526500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59478900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.398449</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.477719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96203799999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84558800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92402799999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8916900000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5700800000000008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4381900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-41ED-4019-95B9-F5B5DA970803}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tournament</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.41041E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2540900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5500700000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8121899999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4587100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15323700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46182400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.219723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97229100000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.43161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2243999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9525300000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4861900000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3465600000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27770899999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.24336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.765000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-41ED-4019-95B9-F5B5DA970803}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.4600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3300000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.5374299999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.7162600000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.1516300000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.85637E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>4.2383400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9.84726E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2.0619999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>4.3017600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>8.1113900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.16367399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.37107699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.67524600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1.6314299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-41ED-4019-95B9-F5B5DA970803}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="686512288"/>
+        <c:axId val="686506056"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Brute Force</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1.7E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.4799999999999997E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="General">
+                        <c:v>2.80721E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>1.65383E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>1.1606099999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>7.2219099999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>0.59845499999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>5.9912599999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="General">
+                        <c:v>70.864800000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>887.15700000000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-41ED-4019-95B9-F5B5DA970803}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="686512288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686506056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="686506056"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686512288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6813B2B-7706-48EA-853B-84EA4CDAB43D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,342 +2079,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80052850-16C5-4450-B5A6-BB64EF947FC6}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
-        <v>1.28246E-3</v>
-      </c>
-      <c r="C1">
-        <v>1.0593099999999999E-3</v>
-      </c>
-      <c r="D1">
-        <v>1.2292099999999999E-3</v>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>3.97527E-4</v>
+      </c>
+      <c r="C2">
+        <v>3.9011500000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>3.9011500000000001E-4</v>
+      </c>
+      <c r="E2">
+        <v>2.41041E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.4600000000000001E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.7E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1.55175E-3</v>
-      </c>
-      <c r="C2">
-        <v>1.4804799999999999E-3</v>
-      </c>
-      <c r="D2">
-        <v>1.83465E-3</v>
+      <c r="B3">
+        <v>2.5996100000000001E-4</v>
+      </c>
+      <c r="C3">
+        <v>4.2621400000000001E-4</v>
+      </c>
+      <c r="D3">
+        <v>4.2621400000000001E-4</v>
+      </c>
+      <c r="E3">
+        <v>2.2540900000000001E-4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.66E-5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.4799999999999997E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>2.0655600000000001E-3</v>
-      </c>
-      <c r="C3">
-        <v>2.1182499999999999E-3</v>
-      </c>
-      <c r="D3">
-        <v>1.82967E-3</v>
+      <c r="B4">
+        <v>3.0452700000000002E-4</v>
+      </c>
+      <c r="C4">
+        <v>4.9159200000000001E-4</v>
+      </c>
+      <c r="D4">
+        <v>4.9159200000000001E-4</v>
+      </c>
+      <c r="E4">
+        <v>2.5500700000000002E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.3500000000000001E-5</v>
+      </c>
+      <c r="G4">
+        <v>2.80721E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>2.3160300000000002E-3</v>
-      </c>
-      <c r="C4">
-        <v>4.4608900000000003E-3</v>
-      </c>
-      <c r="D4">
-        <v>3.39121E-3</v>
+      <c r="B5">
+        <v>4.82359E-3</v>
+      </c>
+      <c r="C5">
+        <v>6.4100199999999996E-2</v>
+      </c>
+      <c r="D5">
+        <v>6.4100199999999996E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.8121899999999993E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7.3300000000000006E-5</v>
+      </c>
+      <c r="G5">
+        <v>1.65383E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>3.0014099999999999E-3</v>
-      </c>
-      <c r="C5">
-        <v>2.3898499999999998E-3</v>
-      </c>
-      <c r="D5">
-        <v>2.37148E-3</v>
+      <c r="B6">
+        <v>6.7173300000000005E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.2629700000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.2629700000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.4587100000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.5374299999999999E-4</v>
+      </c>
+      <c r="G6">
+        <v>1.1606099999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>5.3273499999999998E-3</v>
-      </c>
-      <c r="C6">
-        <v>3.5988499999999998E-3</v>
-      </c>
-      <c r="D6">
-        <v>4.7966099999999998E-3</v>
+      <c r="B7">
+        <v>9.4040100000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.26780399999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.26780399999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.15323700000000001</v>
+      </c>
+      <c r="F7">
+        <v>3.7162600000000001E-4</v>
+      </c>
+      <c r="G7">
+        <v>7.2219099999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>1.14889E-2</v>
-      </c>
-      <c r="C7">
-        <v>4.3603799999999996E-3</v>
-      </c>
-      <c r="D7">
-        <v>9.1135399999999998E-3</v>
+      <c r="B8">
+        <v>0.17186899999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.13326499999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.13326499999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.46182400000000001</v>
+      </c>
+      <c r="F8">
+        <v>8.1516300000000004E-4</v>
+      </c>
+      <c r="G8">
+        <v>0.59845499999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>8.8639300000000008E-3</v>
-      </c>
-      <c r="C8">
-        <v>4.3907499999999997E-3</v>
-      </c>
-      <c r="D8">
-        <v>5.8880099999999999E-3</v>
+      <c r="B9">
+        <v>0.58030199999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.37526500000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.37526500000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.219723</v>
+      </c>
+      <c r="F9">
+        <v>1.85637E-3</v>
+      </c>
+      <c r="G9">
+        <v>5.9912599999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>5.0586900000000002E-3</v>
-      </c>
-      <c r="C9">
-        <v>8.7810700000000002E-3</v>
-      </c>
-      <c r="D9">
-        <v>4.4545899999999996E-3</v>
+      <c r="B10">
+        <v>0.616734</v>
+      </c>
+      <c r="C10">
+        <v>0.59478900000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.59478900000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.97229100000000002</v>
+      </c>
+      <c r="F10">
+        <v>4.2383400000000002E-3</v>
+      </c>
+      <c r="G10">
+        <v>70.864800000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>1.34407E-2</v>
-      </c>
-      <c r="C10">
-        <v>1.28256E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.46039E-2</v>
+      <c r="B11">
+        <v>0.89973400000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.398449</v>
+      </c>
+      <c r="D11">
+        <v>0.398449</v>
+      </c>
+      <c r="E11">
+        <v>3.43161</v>
+      </c>
+      <c r="F11">
+        <v>9.84726E-3</v>
+      </c>
+      <c r="G11">
+        <v>887.15700000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>1.1505400000000001E-2</v>
-      </c>
-      <c r="C11">
-        <v>1.0037000000000001E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.26181E-2</v>
+      <c r="B12">
+        <v>0.74341900000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.477719</v>
+      </c>
+      <c r="D12">
+        <v>0.477719</v>
+      </c>
+      <c r="E12">
+        <v>1.2243999999999999</v>
+      </c>
+      <c r="F12">
+        <v>2.0619999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>1.2447400000000001E-2</v>
-      </c>
-      <c r="C12">
-        <v>1.7538600000000001E-2</v>
-      </c>
-      <c r="D12">
-        <v>7.8339399999999993E-3</v>
+      <c r="B13">
+        <v>0.96383600000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.96203799999999995</v>
+      </c>
+      <c r="D13">
+        <v>0.96203799999999995</v>
+      </c>
+      <c r="E13">
+        <v>4.9525300000000003</v>
+      </c>
+      <c r="F13">
+        <v>4.3017600000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>1.0654500000000001E-2</v>
-      </c>
-      <c r="C13">
-        <v>1.2739199999999999E-2</v>
-      </c>
-      <c r="D13">
-        <v>1.4053599999999999E-2</v>
+      <c r="B14">
+        <v>20.137799999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.84558800000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.84558800000000001</v>
+      </c>
+      <c r="E14">
+        <v>3.4861900000000001</v>
+      </c>
+      <c r="F14">
+        <v>8.1113900000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>1.8131100000000001E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.63798E-2</v>
-      </c>
-      <c r="D14">
-        <v>1.6357300000000002E-2</v>
+      <c r="B15">
+        <v>3.71251</v>
+      </c>
+      <c r="C15">
+        <v>0.92402799999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.92402799999999996</v>
+      </c>
+      <c r="E15">
+        <v>2.3465600000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.16367399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>1.49616E-2</v>
-      </c>
-      <c r="C15">
-        <v>2.3841600000000001E-2</v>
-      </c>
-      <c r="D15">
-        <v>1.6461900000000002E-2</v>
+      <c r="B16">
+        <v>4.7695499999999997</v>
+      </c>
+      <c r="C16">
+        <v>3.8916900000000001</v>
+      </c>
+      <c r="D16">
+        <v>3.8916900000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.27770899999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.37107699999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>2.9892200000000001E-2</v>
-      </c>
-      <c r="C16">
-        <v>2.38826E-2</v>
-      </c>
-      <c r="D16">
-        <v>3.0225700000000001E-2</v>
+      <c r="B17">
+        <v>1.58307</v>
+      </c>
+      <c r="C17">
+        <v>8.5700800000000008</v>
+      </c>
+      <c r="D17">
+        <v>8.5700800000000008</v>
+      </c>
+      <c r="E17">
+        <v>4.24336</v>
+      </c>
+      <c r="F17">
+        <v>0.67524600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>2.5756000000000001E-2</v>
-      </c>
-      <c r="C17">
-        <v>2.5611399999999999E-2</v>
-      </c>
-      <c r="D17">
-        <v>4.0931700000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>21</v>
-      </c>
       <c r="B18">
-        <v>1.42021E-2</v>
+        <v>5.1787099999999997</v>
       </c>
       <c r="C18">
-        <v>1.44475E-2</v>
+        <v>2.4381900000000001</v>
       </c>
       <c r="D18">
-        <v>3.7245599999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>3.2808400000000001E-2</v>
-      </c>
-      <c r="C19">
-        <v>1.1091800000000001E-2</v>
-      </c>
-      <c r="D19">
-        <v>4.0615400000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>1.2104500000000001E-2</v>
-      </c>
-      <c r="C20">
-        <v>2.3618799999999999E-2</v>
-      </c>
-      <c r="D20">
-        <v>2.9071199999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>3.8922999999999999E-2</v>
-      </c>
-      <c r="C21">
-        <v>3.3267100000000001E-2</v>
-      </c>
-      <c r="D21">
-        <v>3.7748700000000003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>2.7353499999999999E-2</v>
-      </c>
-      <c r="C22">
-        <v>3.5102399999999999E-2</v>
-      </c>
-      <c r="D22">
-        <v>6.16692E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>1.63126E-2</v>
-      </c>
-      <c r="C23">
-        <v>4.6179199999999997E-2</v>
-      </c>
-      <c r="D23">
-        <v>0.10023700000000001</v>
+        <v>2.4381900000000001</v>
+      </c>
+      <c r="E18">
+        <v>14.765000000000001</v>
+      </c>
+      <c r="F18">
+        <v>1.6314299999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100527D7ABB7B74044789C64663470D9826" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2630af2d42b8e6d41e9aea75aa69bb9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eea6e1f0-880d-437b-a5c0-5433583c3468" xmlns:ns4="4c8c983e-25d7-4138-9944-d2c4b6ec6596" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4187d4f2a5817f4ed068274fb0daf7a4" ns3:_="" ns4:_="">
     <xsd:import namespace="eea6e1f0-880d-437b-a5c0-5433583c3468"/>
@@ -935,22 +2721,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CACDFF70-565B-4C63-A189-34AC07485770}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="eea6e1f0-880d-437b-a5c0-5433583c3468"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4c8c983e-25d7-4138-9944-d2c4b6ec6596"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666813AF-4BD3-4AF5-9993-8A3DC6401198}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75FCDCA7-F54F-4BFB-AF31-65A59874B38E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -967,21 +2763,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666813AF-4BD3-4AF5-9993-8A3DC6401198}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CACDFF70-565B-4C63-A189-34AC07485770}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Lab4/src/results/Genetic Results.xlsx
+++ b/Lab4/src/results/Genetic Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawx5\OneDrive - Southern Methodist University\CS 3353\Repo\Lab4\src\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{762DA231-657D-491C-B63D-7C98AE11ED10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FA3FC2F7-F26B-43A5-B438-D543E17E06DD}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{762DA231-657D-491C-B63D-7C98AE11ED10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{704D5CBF-6AB5-44F6-83AB-2698C8317B46}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0AD89FA-F57F-43CA-B008-97322296D511}"/>
   </bookViews>
@@ -785,6 +785,141 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4799999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.80721E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.65383E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.1606099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>7.2219099999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.59845499999999996</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>5.9912599999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>70.864800000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>887.15700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-41ED-4019-95B9-F5B5DA970803}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -796,162 +931,7 @@
         <c:smooth val="0"/>
         <c:axId val="686512288"/>
         <c:axId val="686506056"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Brute Force</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="31750" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$2:$G$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>1.7E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.4799999999999997E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="2" formatCode="General">
-                        <c:v>2.80721E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="3" formatCode="General">
-                        <c:v>1.65383E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4" formatCode="General">
-                        <c:v>1.1606099999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5" formatCode="General">
-                        <c:v>7.2219099999999994E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6" formatCode="General">
-                        <c:v>0.59845499999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="7" formatCode="General">
-                        <c:v>5.9912599999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="8" formatCode="General">
-                        <c:v>70.864800000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="9" formatCode="General">
-                        <c:v>887.15700000000004</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-41ED-4019-95B9-F5B5DA970803}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="686512288"/>
@@ -2484,18 +2464,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2722,6 +2702,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666813AF-4BD3-4AF5-9993-8A3DC6401198}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CACDFF70-565B-4C63-A189-34AC07485770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="eea6e1f0-880d-437b-a5c0-5433583c3468"/>
@@ -2734,14 +2722,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666813AF-4BD3-4AF5-9993-8A3DC6401198}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
